--- a/output.xlsx
+++ b/output.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="49">
   <si>
     <t>First name</t>
   </si>
@@ -180,6 +180,12 @@
   </si>
   <si>
     <t>Dedicated Antibiotics</t>
+  </si>
+  <si>
+    <t>Viral Disease</t>
+  </si>
+  <si>
+    <t>Rest at home.</t>
   </si>
 </sst>
 </file>
@@ -533,7 +539,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D788D7CC-192B-4F5D-85B5-B142119D78B6}">
-  <dimension ref="A1:W16"/>
+  <dimension ref="A1:W65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="P5" sqref="P5"/>
@@ -1682,6 +1688,3449 @@
         <v>44</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J17" t="s">
+        <v>9</v>
+      </c>
+      <c r="K17" t="s">
+        <v>10</v>
+      </c>
+      <c r="L17" t="s">
+        <v>11</v>
+      </c>
+      <c r="M17" t="s">
+        <v>12</v>
+      </c>
+      <c r="N17" t="s">
+        <v>13</v>
+      </c>
+      <c r="O17" t="s">
+        <v>14</v>
+      </c>
+      <c r="P17" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>16</v>
+      </c>
+      <c r="R17" t="s">
+        <v>17</v>
+      </c>
+      <c r="S17" t="s">
+        <v>18</v>
+      </c>
+      <c r="T17" t="s">
+        <v>19</v>
+      </c>
+      <c r="U17" t="s">
+        <v>20</v>
+      </c>
+      <c r="V17" t="s">
+        <v>21</v>
+      </c>
+      <c r="W17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>184.0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>5.24183083E8</v>
+      </c>
+      <c r="G18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>4800.0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1344.0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2200.0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>2500.0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>90.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" t="s">
+        <v>27</v>
+      </c>
+      <c r="J19" t="s">
+        <v>27</v>
+      </c>
+      <c r="K19" t="s">
+        <v>27</v>
+      </c>
+      <c r="L19" t="s">
+        <v>27</v>
+      </c>
+      <c r="M19" t="s">
+        <v>27</v>
+      </c>
+      <c r="N19" t="s">
+        <v>27</v>
+      </c>
+      <c r="O19" t="s">
+        <v>27</v>
+      </c>
+      <c r="P19" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>27</v>
+      </c>
+      <c r="R19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S19" t="s">
+        <v>27</v>
+      </c>
+      <c r="T19" t="s">
+        <v>27</v>
+      </c>
+      <c r="U19" t="s">
+        <v>27</v>
+      </c>
+      <c r="V19" t="s">
+        <v>28</v>
+      </c>
+      <c r="W19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" t="s">
+        <v>27</v>
+      </c>
+      <c r="I20" t="s">
+        <v>27</v>
+      </c>
+      <c r="J20" t="s">
+        <v>27</v>
+      </c>
+      <c r="K20" t="s">
+        <v>27</v>
+      </c>
+      <c r="L20" t="s">
+        <v>27</v>
+      </c>
+      <c r="M20" t="s">
+        <v>27</v>
+      </c>
+      <c r="N20" t="s">
+        <v>27</v>
+      </c>
+      <c r="O20" t="s">
+        <v>27</v>
+      </c>
+      <c r="P20" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>27</v>
+      </c>
+      <c r="R20" t="s">
+        <v>27</v>
+      </c>
+      <c r="S20" t="s">
+        <v>27</v>
+      </c>
+      <c r="T20" t="s">
+        <v>27</v>
+      </c>
+      <c r="U20" t="s">
+        <v>27</v>
+      </c>
+      <c r="V20" t="s">
+        <v>30</v>
+      </c>
+      <c r="W20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" t="s">
+        <v>27</v>
+      </c>
+      <c r="I21" t="s">
+        <v>27</v>
+      </c>
+      <c r="J21" t="s">
+        <v>27</v>
+      </c>
+      <c r="K21" t="s">
+        <v>27</v>
+      </c>
+      <c r="L21" t="s">
+        <v>27</v>
+      </c>
+      <c r="M21" t="s">
+        <v>27</v>
+      </c>
+      <c r="N21" t="s">
+        <v>27</v>
+      </c>
+      <c r="O21" t="s">
+        <v>27</v>
+      </c>
+      <c r="P21" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>27</v>
+      </c>
+      <c r="R21" t="s">
+        <v>27</v>
+      </c>
+      <c r="S21" t="s">
+        <v>27</v>
+      </c>
+      <c r="T21" t="s">
+        <v>27</v>
+      </c>
+      <c r="U21" t="s">
+        <v>27</v>
+      </c>
+      <c r="V21" t="s">
+        <v>32</v>
+      </c>
+      <c r="W21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" t="s">
+        <v>27</v>
+      </c>
+      <c r="I22" t="s">
+        <v>27</v>
+      </c>
+      <c r="J22" t="s">
+        <v>27</v>
+      </c>
+      <c r="K22" t="s">
+        <v>27</v>
+      </c>
+      <c r="L22" t="s">
+        <v>27</v>
+      </c>
+      <c r="M22" t="s">
+        <v>27</v>
+      </c>
+      <c r="N22" t="s">
+        <v>27</v>
+      </c>
+      <c r="O22" t="s">
+        <v>27</v>
+      </c>
+      <c r="P22" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>27</v>
+      </c>
+      <c r="R22" t="s">
+        <v>27</v>
+      </c>
+      <c r="S22" t="s">
+        <v>27</v>
+      </c>
+      <c r="T22" t="s">
+        <v>27</v>
+      </c>
+      <c r="U22" t="s">
+        <v>27</v>
+      </c>
+      <c r="V22" t="s">
+        <v>34</v>
+      </c>
+      <c r="W22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" t="s">
+        <v>27</v>
+      </c>
+      <c r="I23" t="s">
+        <v>27</v>
+      </c>
+      <c r="J23" t="s">
+        <v>27</v>
+      </c>
+      <c r="K23" t="s">
+        <v>27</v>
+      </c>
+      <c r="L23" t="s">
+        <v>27</v>
+      </c>
+      <c r="M23" t="s">
+        <v>27</v>
+      </c>
+      <c r="N23" t="s">
+        <v>27</v>
+      </c>
+      <c r="O23" t="s">
+        <v>27</v>
+      </c>
+      <c r="P23" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>27</v>
+      </c>
+      <c r="R23" t="s">
+        <v>27</v>
+      </c>
+      <c r="S23" t="s">
+        <v>27</v>
+      </c>
+      <c r="T23" t="s">
+        <v>27</v>
+      </c>
+      <c r="U23" t="s">
+        <v>27</v>
+      </c>
+      <c r="V23" t="s">
+        <v>36</v>
+      </c>
+      <c r="W23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" t="s">
+        <v>27</v>
+      </c>
+      <c r="I24" t="s">
+        <v>27</v>
+      </c>
+      <c r="J24" t="s">
+        <v>27</v>
+      </c>
+      <c r="K24" t="s">
+        <v>27</v>
+      </c>
+      <c r="L24" t="s">
+        <v>27</v>
+      </c>
+      <c r="M24" t="s">
+        <v>27</v>
+      </c>
+      <c r="N24" t="s">
+        <v>27</v>
+      </c>
+      <c r="O24" t="s">
+        <v>27</v>
+      </c>
+      <c r="P24" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>27</v>
+      </c>
+      <c r="R24" t="s">
+        <v>27</v>
+      </c>
+      <c r="S24" t="s">
+        <v>27</v>
+      </c>
+      <c r="T24" t="s">
+        <v>27</v>
+      </c>
+      <c r="U24" t="s">
+        <v>27</v>
+      </c>
+      <c r="V24" t="s">
+        <v>28</v>
+      </c>
+      <c r="W24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" t="s">
+        <v>27</v>
+      </c>
+      <c r="I25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J25" t="s">
+        <v>27</v>
+      </c>
+      <c r="K25" t="s">
+        <v>27</v>
+      </c>
+      <c r="L25" t="s">
+        <v>27</v>
+      </c>
+      <c r="M25" t="s">
+        <v>27</v>
+      </c>
+      <c r="N25" t="s">
+        <v>27</v>
+      </c>
+      <c r="O25" t="s">
+        <v>27</v>
+      </c>
+      <c r="P25" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>27</v>
+      </c>
+      <c r="R25" t="s">
+        <v>27</v>
+      </c>
+      <c r="S25" t="s">
+        <v>27</v>
+      </c>
+      <c r="T25" t="s">
+        <v>27</v>
+      </c>
+      <c r="U25" t="s">
+        <v>27</v>
+      </c>
+      <c r="V25" t="s">
+        <v>38</v>
+      </c>
+      <c r="W25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" t="s">
+        <v>27</v>
+      </c>
+      <c r="I26" t="s">
+        <v>27</v>
+      </c>
+      <c r="J26" t="s">
+        <v>27</v>
+      </c>
+      <c r="K26" t="s">
+        <v>27</v>
+      </c>
+      <c r="L26" t="s">
+        <v>27</v>
+      </c>
+      <c r="M26" t="s">
+        <v>27</v>
+      </c>
+      <c r="N26" t="s">
+        <v>27</v>
+      </c>
+      <c r="O26" t="s">
+        <v>27</v>
+      </c>
+      <c r="P26" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>27</v>
+      </c>
+      <c r="R26" t="s">
+        <v>27</v>
+      </c>
+      <c r="S26" t="s">
+        <v>27</v>
+      </c>
+      <c r="T26" t="s">
+        <v>27</v>
+      </c>
+      <c r="U26" t="s">
+        <v>27</v>
+      </c>
+      <c r="V26" t="s">
+        <v>39</v>
+      </c>
+      <c r="W26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" t="s">
+        <v>27</v>
+      </c>
+      <c r="G27" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" t="s">
+        <v>27</v>
+      </c>
+      <c r="I27" t="s">
+        <v>27</v>
+      </c>
+      <c r="J27" t="s">
+        <v>27</v>
+      </c>
+      <c r="K27" t="s">
+        <v>27</v>
+      </c>
+      <c r="L27" t="s">
+        <v>27</v>
+      </c>
+      <c r="M27" t="s">
+        <v>27</v>
+      </c>
+      <c r="N27" t="s">
+        <v>27</v>
+      </c>
+      <c r="O27" t="s">
+        <v>27</v>
+      </c>
+      <c r="P27" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>27</v>
+      </c>
+      <c r="R27" t="s">
+        <v>27</v>
+      </c>
+      <c r="S27" t="s">
+        <v>27</v>
+      </c>
+      <c r="T27" t="s">
+        <v>27</v>
+      </c>
+      <c r="U27" t="s">
+        <v>27</v>
+      </c>
+      <c r="V27" t="s">
+        <v>41</v>
+      </c>
+      <c r="W27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" t="s">
+        <v>6</v>
+      </c>
+      <c r="H28" t="s">
+        <v>7</v>
+      </c>
+      <c r="I28" t="s">
+        <v>8</v>
+      </c>
+      <c r="J28" t="s">
+        <v>9</v>
+      </c>
+      <c r="K28" t="s">
+        <v>10</v>
+      </c>
+      <c r="L28" t="s">
+        <v>11</v>
+      </c>
+      <c r="M28" t="s">
+        <v>12</v>
+      </c>
+      <c r="N28" t="s">
+        <v>13</v>
+      </c>
+      <c r="O28" t="s">
+        <v>14</v>
+      </c>
+      <c r="P28" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>16</v>
+      </c>
+      <c r="R28" t="s">
+        <v>17</v>
+      </c>
+      <c r="S28" t="s">
+        <v>18</v>
+      </c>
+      <c r="T28" t="s">
+        <v>19</v>
+      </c>
+      <c r="U28" t="s">
+        <v>20</v>
+      </c>
+      <c r="V28" t="s">
+        <v>21</v>
+      </c>
+      <c r="W28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>184.0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>5.24183083E8</v>
+      </c>
+      <c r="G29" t="s">
+        <v>25</v>
+      </c>
+      <c r="H29" t="s">
+        <v>26</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>4800.0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1344.0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2200.0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>2500.0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>90.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" t="s">
+        <v>27</v>
+      </c>
+      <c r="G30" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30" t="s">
+        <v>27</v>
+      </c>
+      <c r="I30" t="s">
+        <v>27</v>
+      </c>
+      <c r="J30" t="s">
+        <v>27</v>
+      </c>
+      <c r="K30" t="s">
+        <v>27</v>
+      </c>
+      <c r="L30" t="s">
+        <v>27</v>
+      </c>
+      <c r="M30" t="s">
+        <v>27</v>
+      </c>
+      <c r="N30" t="s">
+        <v>27</v>
+      </c>
+      <c r="O30" t="s">
+        <v>27</v>
+      </c>
+      <c r="P30" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>27</v>
+      </c>
+      <c r="R30" t="s">
+        <v>27</v>
+      </c>
+      <c r="S30" t="s">
+        <v>27</v>
+      </c>
+      <c r="T30" t="s">
+        <v>27</v>
+      </c>
+      <c r="U30" t="s">
+        <v>27</v>
+      </c>
+      <c r="V30" t="s">
+        <v>28</v>
+      </c>
+      <c r="W30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" t="s">
+        <v>27</v>
+      </c>
+      <c r="F31" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H31" t="s">
+        <v>27</v>
+      </c>
+      <c r="I31" t="s">
+        <v>27</v>
+      </c>
+      <c r="J31" t="s">
+        <v>27</v>
+      </c>
+      <c r="K31" t="s">
+        <v>27</v>
+      </c>
+      <c r="L31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M31" t="s">
+        <v>27</v>
+      </c>
+      <c r="N31" t="s">
+        <v>27</v>
+      </c>
+      <c r="O31" t="s">
+        <v>27</v>
+      </c>
+      <c r="P31" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>27</v>
+      </c>
+      <c r="R31" t="s">
+        <v>27</v>
+      </c>
+      <c r="S31" t="s">
+        <v>27</v>
+      </c>
+      <c r="T31" t="s">
+        <v>27</v>
+      </c>
+      <c r="U31" t="s">
+        <v>27</v>
+      </c>
+      <c r="V31" t="s">
+        <v>30</v>
+      </c>
+      <c r="W31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" t="s">
+        <v>27</v>
+      </c>
+      <c r="F32" t="s">
+        <v>27</v>
+      </c>
+      <c r="G32" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" t="s">
+        <v>27</v>
+      </c>
+      <c r="I32" t="s">
+        <v>27</v>
+      </c>
+      <c r="J32" t="s">
+        <v>27</v>
+      </c>
+      <c r="K32" t="s">
+        <v>27</v>
+      </c>
+      <c r="L32" t="s">
+        <v>27</v>
+      </c>
+      <c r="M32" t="s">
+        <v>27</v>
+      </c>
+      <c r="N32" t="s">
+        <v>27</v>
+      </c>
+      <c r="O32" t="s">
+        <v>27</v>
+      </c>
+      <c r="P32" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>27</v>
+      </c>
+      <c r="R32" t="s">
+        <v>27</v>
+      </c>
+      <c r="S32" t="s">
+        <v>27</v>
+      </c>
+      <c r="T32" t="s">
+        <v>27</v>
+      </c>
+      <c r="U32" t="s">
+        <v>27</v>
+      </c>
+      <c r="V32" t="s">
+        <v>32</v>
+      </c>
+      <c r="W32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" t="s">
+        <v>27</v>
+      </c>
+      <c r="F33" t="s">
+        <v>27</v>
+      </c>
+      <c r="G33" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33" t="s">
+        <v>27</v>
+      </c>
+      <c r="I33" t="s">
+        <v>27</v>
+      </c>
+      <c r="J33" t="s">
+        <v>27</v>
+      </c>
+      <c r="K33" t="s">
+        <v>27</v>
+      </c>
+      <c r="L33" t="s">
+        <v>27</v>
+      </c>
+      <c r="M33" t="s">
+        <v>27</v>
+      </c>
+      <c r="N33" t="s">
+        <v>27</v>
+      </c>
+      <c r="O33" t="s">
+        <v>27</v>
+      </c>
+      <c r="P33" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>27</v>
+      </c>
+      <c r="R33" t="s">
+        <v>27</v>
+      </c>
+      <c r="S33" t="s">
+        <v>27</v>
+      </c>
+      <c r="T33" t="s">
+        <v>27</v>
+      </c>
+      <c r="U33" t="s">
+        <v>27</v>
+      </c>
+      <c r="V33" t="s">
+        <v>34</v>
+      </c>
+      <c r="W33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" t="s">
+        <v>27</v>
+      </c>
+      <c r="F34" t="s">
+        <v>27</v>
+      </c>
+      <c r="G34" t="s">
+        <v>27</v>
+      </c>
+      <c r="H34" t="s">
+        <v>27</v>
+      </c>
+      <c r="I34" t="s">
+        <v>27</v>
+      </c>
+      <c r="J34" t="s">
+        <v>27</v>
+      </c>
+      <c r="K34" t="s">
+        <v>27</v>
+      </c>
+      <c r="L34" t="s">
+        <v>27</v>
+      </c>
+      <c r="M34" t="s">
+        <v>27</v>
+      </c>
+      <c r="N34" t="s">
+        <v>27</v>
+      </c>
+      <c r="O34" t="s">
+        <v>27</v>
+      </c>
+      <c r="P34" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>27</v>
+      </c>
+      <c r="R34" t="s">
+        <v>27</v>
+      </c>
+      <c r="S34" t="s">
+        <v>27</v>
+      </c>
+      <c r="T34" t="s">
+        <v>27</v>
+      </c>
+      <c r="U34" t="s">
+        <v>27</v>
+      </c>
+      <c r="V34" t="s">
+        <v>36</v>
+      </c>
+      <c r="W34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" t="s">
+        <v>27</v>
+      </c>
+      <c r="F35" t="s">
+        <v>27</v>
+      </c>
+      <c r="G35" t="s">
+        <v>27</v>
+      </c>
+      <c r="H35" t="s">
+        <v>27</v>
+      </c>
+      <c r="I35" t="s">
+        <v>27</v>
+      </c>
+      <c r="J35" t="s">
+        <v>27</v>
+      </c>
+      <c r="K35" t="s">
+        <v>27</v>
+      </c>
+      <c r="L35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M35" t="s">
+        <v>27</v>
+      </c>
+      <c r="N35" t="s">
+        <v>27</v>
+      </c>
+      <c r="O35" t="s">
+        <v>27</v>
+      </c>
+      <c r="P35" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>27</v>
+      </c>
+      <c r="R35" t="s">
+        <v>27</v>
+      </c>
+      <c r="S35" t="s">
+        <v>27</v>
+      </c>
+      <c r="T35" t="s">
+        <v>27</v>
+      </c>
+      <c r="U35" t="s">
+        <v>27</v>
+      </c>
+      <c r="V35" t="s">
+        <v>28</v>
+      </c>
+      <c r="W35" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36" t="s">
+        <v>27</v>
+      </c>
+      <c r="F36" t="s">
+        <v>27</v>
+      </c>
+      <c r="G36" t="s">
+        <v>27</v>
+      </c>
+      <c r="H36" t="s">
+        <v>27</v>
+      </c>
+      <c r="I36" t="s">
+        <v>27</v>
+      </c>
+      <c r="J36" t="s">
+        <v>27</v>
+      </c>
+      <c r="K36" t="s">
+        <v>27</v>
+      </c>
+      <c r="L36" t="s">
+        <v>27</v>
+      </c>
+      <c r="M36" t="s">
+        <v>27</v>
+      </c>
+      <c r="N36" t="s">
+        <v>27</v>
+      </c>
+      <c r="O36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P36" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>27</v>
+      </c>
+      <c r="R36" t="s">
+        <v>27</v>
+      </c>
+      <c r="S36" t="s">
+        <v>27</v>
+      </c>
+      <c r="T36" t="s">
+        <v>27</v>
+      </c>
+      <c r="U36" t="s">
+        <v>27</v>
+      </c>
+      <c r="V36" t="s">
+        <v>38</v>
+      </c>
+      <c r="W36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" t="s">
+        <v>27</v>
+      </c>
+      <c r="F37" t="s">
+        <v>27</v>
+      </c>
+      <c r="G37" t="s">
+        <v>27</v>
+      </c>
+      <c r="H37" t="s">
+        <v>27</v>
+      </c>
+      <c r="I37" t="s">
+        <v>27</v>
+      </c>
+      <c r="J37" t="s">
+        <v>27</v>
+      </c>
+      <c r="K37" t="s">
+        <v>27</v>
+      </c>
+      <c r="L37" t="s">
+        <v>27</v>
+      </c>
+      <c r="M37" t="s">
+        <v>27</v>
+      </c>
+      <c r="N37" t="s">
+        <v>27</v>
+      </c>
+      <c r="O37" t="s">
+        <v>27</v>
+      </c>
+      <c r="P37" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>27</v>
+      </c>
+      <c r="R37" t="s">
+        <v>27</v>
+      </c>
+      <c r="S37" t="s">
+        <v>27</v>
+      </c>
+      <c r="T37" t="s">
+        <v>27</v>
+      </c>
+      <c r="U37" t="s">
+        <v>27</v>
+      </c>
+      <c r="V37" t="s">
+        <v>39</v>
+      </c>
+      <c r="W37" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" t="s">
+        <v>27</v>
+      </c>
+      <c r="E38" t="s">
+        <v>27</v>
+      </c>
+      <c r="F38" t="s">
+        <v>27</v>
+      </c>
+      <c r="G38" t="s">
+        <v>27</v>
+      </c>
+      <c r="H38" t="s">
+        <v>27</v>
+      </c>
+      <c r="I38" t="s">
+        <v>27</v>
+      </c>
+      <c r="J38" t="s">
+        <v>27</v>
+      </c>
+      <c r="K38" t="s">
+        <v>27</v>
+      </c>
+      <c r="L38" t="s">
+        <v>27</v>
+      </c>
+      <c r="M38" t="s">
+        <v>27</v>
+      </c>
+      <c r="N38" t="s">
+        <v>27</v>
+      </c>
+      <c r="O38" t="s">
+        <v>27</v>
+      </c>
+      <c r="P38" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>27</v>
+      </c>
+      <c r="R38" t="s">
+        <v>27</v>
+      </c>
+      <c r="S38" t="s">
+        <v>27</v>
+      </c>
+      <c r="T38" t="s">
+        <v>27</v>
+      </c>
+      <c r="U38" t="s">
+        <v>27</v>
+      </c>
+      <c r="V38" t="s">
+        <v>41</v>
+      </c>
+      <c r="W38" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" t="s">
+        <v>4</v>
+      </c>
+      <c r="F39" t="s">
+        <v>5</v>
+      </c>
+      <c r="G39" t="s">
+        <v>6</v>
+      </c>
+      <c r="H39" t="s">
+        <v>7</v>
+      </c>
+      <c r="I39" t="s">
+        <v>8</v>
+      </c>
+      <c r="J39" t="s">
+        <v>9</v>
+      </c>
+      <c r="K39" t="s">
+        <v>10</v>
+      </c>
+      <c r="L39" t="s">
+        <v>11</v>
+      </c>
+      <c r="M39" t="s">
+        <v>12</v>
+      </c>
+      <c r="N39" t="s">
+        <v>13</v>
+      </c>
+      <c r="O39" t="s">
+        <v>14</v>
+      </c>
+      <c r="P39" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>16</v>
+      </c>
+      <c r="R39" t="s">
+        <v>17</v>
+      </c>
+      <c r="S39" t="s">
+        <v>18</v>
+      </c>
+      <c r="T39" t="s">
+        <v>19</v>
+      </c>
+      <c r="U39" t="s">
+        <v>20</v>
+      </c>
+      <c r="V39" t="s">
+        <v>21</v>
+      </c>
+      <c r="W39" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>184.0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>5.24183083E8</v>
+      </c>
+      <c r="G40" t="s">
+        <v>25</v>
+      </c>
+      <c r="H40" t="s">
+        <v>26</v>
+      </c>
+      <c r="I40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>4800.0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1344.0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>2200.0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>2500.0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>90.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" t="s">
+        <v>27</v>
+      </c>
+      <c r="D41" t="s">
+        <v>27</v>
+      </c>
+      <c r="E41" t="s">
+        <v>27</v>
+      </c>
+      <c r="F41" t="s">
+        <v>27</v>
+      </c>
+      <c r="G41" t="s">
+        <v>27</v>
+      </c>
+      <c r="H41" t="s">
+        <v>27</v>
+      </c>
+      <c r="I41" t="s">
+        <v>27</v>
+      </c>
+      <c r="J41" t="s">
+        <v>27</v>
+      </c>
+      <c r="K41" t="s">
+        <v>27</v>
+      </c>
+      <c r="L41" t="s">
+        <v>27</v>
+      </c>
+      <c r="M41" t="s">
+        <v>27</v>
+      </c>
+      <c r="N41" t="s">
+        <v>27</v>
+      </c>
+      <c r="O41" t="s">
+        <v>27</v>
+      </c>
+      <c r="P41" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>27</v>
+      </c>
+      <c r="R41" t="s">
+        <v>27</v>
+      </c>
+      <c r="S41" t="s">
+        <v>27</v>
+      </c>
+      <c r="T41" t="s">
+        <v>27</v>
+      </c>
+      <c r="U41" t="s">
+        <v>27</v>
+      </c>
+      <c r="V41" t="s">
+        <v>28</v>
+      </c>
+      <c r="W41" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>27</v>
+      </c>
+      <c r="B42" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42" t="s">
+        <v>27</v>
+      </c>
+      <c r="D42" t="s">
+        <v>27</v>
+      </c>
+      <c r="E42" t="s">
+        <v>27</v>
+      </c>
+      <c r="F42" t="s">
+        <v>27</v>
+      </c>
+      <c r="G42" t="s">
+        <v>27</v>
+      </c>
+      <c r="H42" t="s">
+        <v>27</v>
+      </c>
+      <c r="I42" t="s">
+        <v>27</v>
+      </c>
+      <c r="J42" t="s">
+        <v>27</v>
+      </c>
+      <c r="K42" t="s">
+        <v>27</v>
+      </c>
+      <c r="L42" t="s">
+        <v>27</v>
+      </c>
+      <c r="M42" t="s">
+        <v>27</v>
+      </c>
+      <c r="N42" t="s">
+        <v>27</v>
+      </c>
+      <c r="O42" t="s">
+        <v>27</v>
+      </c>
+      <c r="P42" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>27</v>
+      </c>
+      <c r="R42" t="s">
+        <v>27</v>
+      </c>
+      <c r="S42" t="s">
+        <v>27</v>
+      </c>
+      <c r="T42" t="s">
+        <v>27</v>
+      </c>
+      <c r="U42" t="s">
+        <v>27</v>
+      </c>
+      <c r="V42" t="s">
+        <v>30</v>
+      </c>
+      <c r="W42" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B43" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" t="s">
+        <v>27</v>
+      </c>
+      <c r="D43" t="s">
+        <v>27</v>
+      </c>
+      <c r="E43" t="s">
+        <v>27</v>
+      </c>
+      <c r="F43" t="s">
+        <v>27</v>
+      </c>
+      <c r="G43" t="s">
+        <v>27</v>
+      </c>
+      <c r="H43" t="s">
+        <v>27</v>
+      </c>
+      <c r="I43" t="s">
+        <v>27</v>
+      </c>
+      <c r="J43" t="s">
+        <v>27</v>
+      </c>
+      <c r="K43" t="s">
+        <v>27</v>
+      </c>
+      <c r="L43" t="s">
+        <v>27</v>
+      </c>
+      <c r="M43" t="s">
+        <v>27</v>
+      </c>
+      <c r="N43" t="s">
+        <v>27</v>
+      </c>
+      <c r="O43" t="s">
+        <v>27</v>
+      </c>
+      <c r="P43" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>27</v>
+      </c>
+      <c r="R43" t="s">
+        <v>27</v>
+      </c>
+      <c r="S43" t="s">
+        <v>27</v>
+      </c>
+      <c r="T43" t="s">
+        <v>27</v>
+      </c>
+      <c r="U43" t="s">
+        <v>27</v>
+      </c>
+      <c r="V43" t="s">
+        <v>32</v>
+      </c>
+      <c r="W43" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>27</v>
+      </c>
+      <c r="B44" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44" t="s">
+        <v>27</v>
+      </c>
+      <c r="D44" t="s">
+        <v>27</v>
+      </c>
+      <c r="E44" t="s">
+        <v>27</v>
+      </c>
+      <c r="F44" t="s">
+        <v>27</v>
+      </c>
+      <c r="G44" t="s">
+        <v>27</v>
+      </c>
+      <c r="H44" t="s">
+        <v>27</v>
+      </c>
+      <c r="I44" t="s">
+        <v>27</v>
+      </c>
+      <c r="J44" t="s">
+        <v>27</v>
+      </c>
+      <c r="K44" t="s">
+        <v>27</v>
+      </c>
+      <c r="L44" t="s">
+        <v>27</v>
+      </c>
+      <c r="M44" t="s">
+        <v>27</v>
+      </c>
+      <c r="N44" t="s">
+        <v>27</v>
+      </c>
+      <c r="O44" t="s">
+        <v>27</v>
+      </c>
+      <c r="P44" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>27</v>
+      </c>
+      <c r="R44" t="s">
+        <v>27</v>
+      </c>
+      <c r="S44" t="s">
+        <v>27</v>
+      </c>
+      <c r="T44" t="s">
+        <v>27</v>
+      </c>
+      <c r="U44" t="s">
+        <v>27</v>
+      </c>
+      <c r="V44" t="s">
+        <v>34</v>
+      </c>
+      <c r="W44" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>27</v>
+      </c>
+      <c r="B45" t="s">
+        <v>27</v>
+      </c>
+      <c r="C45" t="s">
+        <v>27</v>
+      </c>
+      <c r="D45" t="s">
+        <v>27</v>
+      </c>
+      <c r="E45" t="s">
+        <v>27</v>
+      </c>
+      <c r="F45" t="s">
+        <v>27</v>
+      </c>
+      <c r="G45" t="s">
+        <v>27</v>
+      </c>
+      <c r="H45" t="s">
+        <v>27</v>
+      </c>
+      <c r="I45" t="s">
+        <v>27</v>
+      </c>
+      <c r="J45" t="s">
+        <v>27</v>
+      </c>
+      <c r="K45" t="s">
+        <v>27</v>
+      </c>
+      <c r="L45" t="s">
+        <v>27</v>
+      </c>
+      <c r="M45" t="s">
+        <v>27</v>
+      </c>
+      <c r="N45" t="s">
+        <v>27</v>
+      </c>
+      <c r="O45" t="s">
+        <v>27</v>
+      </c>
+      <c r="P45" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>27</v>
+      </c>
+      <c r="R45" t="s">
+        <v>27</v>
+      </c>
+      <c r="S45" t="s">
+        <v>27</v>
+      </c>
+      <c r="T45" t="s">
+        <v>27</v>
+      </c>
+      <c r="U45" t="s">
+        <v>27</v>
+      </c>
+      <c r="V45" t="s">
+        <v>36</v>
+      </c>
+      <c r="W45" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>27</v>
+      </c>
+      <c r="B46" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" t="s">
+        <v>27</v>
+      </c>
+      <c r="D46" t="s">
+        <v>27</v>
+      </c>
+      <c r="E46" t="s">
+        <v>27</v>
+      </c>
+      <c r="F46" t="s">
+        <v>27</v>
+      </c>
+      <c r="G46" t="s">
+        <v>27</v>
+      </c>
+      <c r="H46" t="s">
+        <v>27</v>
+      </c>
+      <c r="I46" t="s">
+        <v>27</v>
+      </c>
+      <c r="J46" t="s">
+        <v>27</v>
+      </c>
+      <c r="K46" t="s">
+        <v>27</v>
+      </c>
+      <c r="L46" t="s">
+        <v>27</v>
+      </c>
+      <c r="M46" t="s">
+        <v>27</v>
+      </c>
+      <c r="N46" t="s">
+        <v>27</v>
+      </c>
+      <c r="O46" t="s">
+        <v>27</v>
+      </c>
+      <c r="P46" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>27</v>
+      </c>
+      <c r="R46" t="s">
+        <v>27</v>
+      </c>
+      <c r="S46" t="s">
+        <v>27</v>
+      </c>
+      <c r="T46" t="s">
+        <v>27</v>
+      </c>
+      <c r="U46" t="s">
+        <v>27</v>
+      </c>
+      <c r="V46" t="s">
+        <v>28</v>
+      </c>
+      <c r="W46" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>27</v>
+      </c>
+      <c r="B47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C47" t="s">
+        <v>27</v>
+      </c>
+      <c r="D47" t="s">
+        <v>27</v>
+      </c>
+      <c r="E47" t="s">
+        <v>27</v>
+      </c>
+      <c r="F47" t="s">
+        <v>27</v>
+      </c>
+      <c r="G47" t="s">
+        <v>27</v>
+      </c>
+      <c r="H47" t="s">
+        <v>27</v>
+      </c>
+      <c r="I47" t="s">
+        <v>27</v>
+      </c>
+      <c r="J47" t="s">
+        <v>27</v>
+      </c>
+      <c r="K47" t="s">
+        <v>27</v>
+      </c>
+      <c r="L47" t="s">
+        <v>27</v>
+      </c>
+      <c r="M47" t="s">
+        <v>27</v>
+      </c>
+      <c r="N47" t="s">
+        <v>27</v>
+      </c>
+      <c r="O47" t="s">
+        <v>27</v>
+      </c>
+      <c r="P47" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>27</v>
+      </c>
+      <c r="R47" t="s">
+        <v>27</v>
+      </c>
+      <c r="S47" t="s">
+        <v>27</v>
+      </c>
+      <c r="T47" t="s">
+        <v>27</v>
+      </c>
+      <c r="U47" t="s">
+        <v>27</v>
+      </c>
+      <c r="V47" t="s">
+        <v>38</v>
+      </c>
+      <c r="W47" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>27</v>
+      </c>
+      <c r="B48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C48" t="s">
+        <v>27</v>
+      </c>
+      <c r="D48" t="s">
+        <v>27</v>
+      </c>
+      <c r="E48" t="s">
+        <v>27</v>
+      </c>
+      <c r="F48" t="s">
+        <v>27</v>
+      </c>
+      <c r="G48" t="s">
+        <v>27</v>
+      </c>
+      <c r="H48" t="s">
+        <v>27</v>
+      </c>
+      <c r="I48" t="s">
+        <v>27</v>
+      </c>
+      <c r="J48" t="s">
+        <v>27</v>
+      </c>
+      <c r="K48" t="s">
+        <v>27</v>
+      </c>
+      <c r="L48" t="s">
+        <v>27</v>
+      </c>
+      <c r="M48" t="s">
+        <v>27</v>
+      </c>
+      <c r="N48" t="s">
+        <v>27</v>
+      </c>
+      <c r="O48" t="s">
+        <v>27</v>
+      </c>
+      <c r="P48" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>27</v>
+      </c>
+      <c r="R48" t="s">
+        <v>27</v>
+      </c>
+      <c r="S48" t="s">
+        <v>27</v>
+      </c>
+      <c r="T48" t="s">
+        <v>27</v>
+      </c>
+      <c r="U48" t="s">
+        <v>27</v>
+      </c>
+      <c r="V48" t="s">
+        <v>39</v>
+      </c>
+      <c r="W48" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>27</v>
+      </c>
+      <c r="B49" t="s">
+        <v>27</v>
+      </c>
+      <c r="C49" t="s">
+        <v>27</v>
+      </c>
+      <c r="D49" t="s">
+        <v>27</v>
+      </c>
+      <c r="E49" t="s">
+        <v>27</v>
+      </c>
+      <c r="F49" t="s">
+        <v>27</v>
+      </c>
+      <c r="G49" t="s">
+        <v>27</v>
+      </c>
+      <c r="H49" t="s">
+        <v>27</v>
+      </c>
+      <c r="I49" t="s">
+        <v>27</v>
+      </c>
+      <c r="J49" t="s">
+        <v>27</v>
+      </c>
+      <c r="K49" t="s">
+        <v>27</v>
+      </c>
+      <c r="L49" t="s">
+        <v>27</v>
+      </c>
+      <c r="M49" t="s">
+        <v>27</v>
+      </c>
+      <c r="N49" t="s">
+        <v>27</v>
+      </c>
+      <c r="O49" t="s">
+        <v>27</v>
+      </c>
+      <c r="P49" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>27</v>
+      </c>
+      <c r="R49" t="s">
+        <v>27</v>
+      </c>
+      <c r="S49" t="s">
+        <v>27</v>
+      </c>
+      <c r="T49" t="s">
+        <v>27</v>
+      </c>
+      <c r="U49" t="s">
+        <v>27</v>
+      </c>
+      <c r="V49" t="s">
+        <v>41</v>
+      </c>
+      <c r="W49" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" t="s">
+        <v>3</v>
+      </c>
+      <c r="E50" t="s">
+        <v>4</v>
+      </c>
+      <c r="F50" t="s">
+        <v>5</v>
+      </c>
+      <c r="G50" t="s">
+        <v>6</v>
+      </c>
+      <c r="H50" t="s">
+        <v>7</v>
+      </c>
+      <c r="I50" t="s">
+        <v>8</v>
+      </c>
+      <c r="J50" t="s">
+        <v>9</v>
+      </c>
+      <c r="K50" t="s">
+        <v>10</v>
+      </c>
+      <c r="L50" t="s">
+        <v>11</v>
+      </c>
+      <c r="M50" t="s">
+        <v>12</v>
+      </c>
+      <c r="N50" t="s">
+        <v>13</v>
+      </c>
+      <c r="O50" t="s">
+        <v>14</v>
+      </c>
+      <c r="P50" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>16</v>
+      </c>
+      <c r="R50" t="s">
+        <v>17</v>
+      </c>
+      <c r="S50" t="s">
+        <v>18</v>
+      </c>
+      <c r="T50" t="s">
+        <v>19</v>
+      </c>
+      <c r="U50" t="s">
+        <v>20</v>
+      </c>
+      <c r="V50" t="s">
+        <v>21</v>
+      </c>
+      <c r="W50" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51" t="s">
+        <v>24</v>
+      </c>
+      <c r="C51" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>184.0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>5.24183083E8</v>
+      </c>
+      <c r="G51" t="s">
+        <v>25</v>
+      </c>
+      <c r="H51" t="s">
+        <v>26</v>
+      </c>
+      <c r="I51" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>4800.0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>1344.0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>2200.0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="O51" t="n">
+        <v>2500.0</v>
+      </c>
+      <c r="P51" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="R51" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S51" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="T51" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="U51" t="n">
+        <v>90.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>27</v>
+      </c>
+      <c r="B52" t="s">
+        <v>27</v>
+      </c>
+      <c r="C52" t="s">
+        <v>27</v>
+      </c>
+      <c r="D52" t="s">
+        <v>27</v>
+      </c>
+      <c r="E52" t="s">
+        <v>27</v>
+      </c>
+      <c r="F52" t="s">
+        <v>27</v>
+      </c>
+      <c r="G52" t="s">
+        <v>27</v>
+      </c>
+      <c r="H52" t="s">
+        <v>27</v>
+      </c>
+      <c r="I52" t="s">
+        <v>27</v>
+      </c>
+      <c r="J52" t="s">
+        <v>27</v>
+      </c>
+      <c r="K52" t="s">
+        <v>27</v>
+      </c>
+      <c r="L52" t="s">
+        <v>27</v>
+      </c>
+      <c r="M52" t="s">
+        <v>27</v>
+      </c>
+      <c r="N52" t="s">
+        <v>27</v>
+      </c>
+      <c r="O52" t="s">
+        <v>27</v>
+      </c>
+      <c r="P52" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>27</v>
+      </c>
+      <c r="R52" t="s">
+        <v>27</v>
+      </c>
+      <c r="S52" t="s">
+        <v>27</v>
+      </c>
+      <c r="T52" t="s">
+        <v>27</v>
+      </c>
+      <c r="U52" t="s">
+        <v>27</v>
+      </c>
+      <c r="V52" t="s">
+        <v>28</v>
+      </c>
+      <c r="W52" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>27</v>
+      </c>
+      <c r="B53" t="s">
+        <v>27</v>
+      </c>
+      <c r="C53" t="s">
+        <v>27</v>
+      </c>
+      <c r="D53" t="s">
+        <v>27</v>
+      </c>
+      <c r="E53" t="s">
+        <v>27</v>
+      </c>
+      <c r="F53" t="s">
+        <v>27</v>
+      </c>
+      <c r="G53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H53" t="s">
+        <v>27</v>
+      </c>
+      <c r="I53" t="s">
+        <v>27</v>
+      </c>
+      <c r="J53" t="s">
+        <v>27</v>
+      </c>
+      <c r="K53" t="s">
+        <v>27</v>
+      </c>
+      <c r="L53" t="s">
+        <v>27</v>
+      </c>
+      <c r="M53" t="s">
+        <v>27</v>
+      </c>
+      <c r="N53" t="s">
+        <v>27</v>
+      </c>
+      <c r="O53" t="s">
+        <v>27</v>
+      </c>
+      <c r="P53" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>27</v>
+      </c>
+      <c r="R53" t="s">
+        <v>27</v>
+      </c>
+      <c r="S53" t="s">
+        <v>27</v>
+      </c>
+      <c r="T53" t="s">
+        <v>27</v>
+      </c>
+      <c r="U53" t="s">
+        <v>27</v>
+      </c>
+      <c r="V53" t="s">
+        <v>30</v>
+      </c>
+      <c r="W53" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>27</v>
+      </c>
+      <c r="B54" t="s">
+        <v>27</v>
+      </c>
+      <c r="C54" t="s">
+        <v>27</v>
+      </c>
+      <c r="D54" t="s">
+        <v>27</v>
+      </c>
+      <c r="E54" t="s">
+        <v>27</v>
+      </c>
+      <c r="F54" t="s">
+        <v>27</v>
+      </c>
+      <c r="G54" t="s">
+        <v>27</v>
+      </c>
+      <c r="H54" t="s">
+        <v>27</v>
+      </c>
+      <c r="I54" t="s">
+        <v>27</v>
+      </c>
+      <c r="J54" t="s">
+        <v>27</v>
+      </c>
+      <c r="K54" t="s">
+        <v>27</v>
+      </c>
+      <c r="L54" t="s">
+        <v>27</v>
+      </c>
+      <c r="M54" t="s">
+        <v>27</v>
+      </c>
+      <c r="N54" t="s">
+        <v>27</v>
+      </c>
+      <c r="O54" t="s">
+        <v>27</v>
+      </c>
+      <c r="P54" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>27</v>
+      </c>
+      <c r="R54" t="s">
+        <v>27</v>
+      </c>
+      <c r="S54" t="s">
+        <v>27</v>
+      </c>
+      <c r="T54" t="s">
+        <v>27</v>
+      </c>
+      <c r="U54" t="s">
+        <v>27</v>
+      </c>
+      <c r="V54" t="s">
+        <v>32</v>
+      </c>
+      <c r="W54" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>27</v>
+      </c>
+      <c r="B55" t="s">
+        <v>27</v>
+      </c>
+      <c r="C55" t="s">
+        <v>27</v>
+      </c>
+      <c r="D55" t="s">
+        <v>27</v>
+      </c>
+      <c r="E55" t="s">
+        <v>27</v>
+      </c>
+      <c r="F55" t="s">
+        <v>27</v>
+      </c>
+      <c r="G55" t="s">
+        <v>27</v>
+      </c>
+      <c r="H55" t="s">
+        <v>27</v>
+      </c>
+      <c r="I55" t="s">
+        <v>27</v>
+      </c>
+      <c r="J55" t="s">
+        <v>27</v>
+      </c>
+      <c r="K55" t="s">
+        <v>27</v>
+      </c>
+      <c r="L55" t="s">
+        <v>27</v>
+      </c>
+      <c r="M55" t="s">
+        <v>27</v>
+      </c>
+      <c r="N55" t="s">
+        <v>27</v>
+      </c>
+      <c r="O55" t="s">
+        <v>27</v>
+      </c>
+      <c r="P55" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>27</v>
+      </c>
+      <c r="R55" t="s">
+        <v>27</v>
+      </c>
+      <c r="S55" t="s">
+        <v>27</v>
+      </c>
+      <c r="T55" t="s">
+        <v>27</v>
+      </c>
+      <c r="U55" t="s">
+        <v>27</v>
+      </c>
+      <c r="V55" t="s">
+        <v>34</v>
+      </c>
+      <c r="W55" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>27</v>
+      </c>
+      <c r="B56" t="s">
+        <v>27</v>
+      </c>
+      <c r="C56" t="s">
+        <v>27</v>
+      </c>
+      <c r="D56" t="s">
+        <v>27</v>
+      </c>
+      <c r="E56" t="s">
+        <v>27</v>
+      </c>
+      <c r="F56" t="s">
+        <v>27</v>
+      </c>
+      <c r="G56" t="s">
+        <v>27</v>
+      </c>
+      <c r="H56" t="s">
+        <v>27</v>
+      </c>
+      <c r="I56" t="s">
+        <v>27</v>
+      </c>
+      <c r="J56" t="s">
+        <v>27</v>
+      </c>
+      <c r="K56" t="s">
+        <v>27</v>
+      </c>
+      <c r="L56" t="s">
+        <v>27</v>
+      </c>
+      <c r="M56" t="s">
+        <v>27</v>
+      </c>
+      <c r="N56" t="s">
+        <v>27</v>
+      </c>
+      <c r="O56" t="s">
+        <v>27</v>
+      </c>
+      <c r="P56" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>27</v>
+      </c>
+      <c r="R56" t="s">
+        <v>27</v>
+      </c>
+      <c r="S56" t="s">
+        <v>27</v>
+      </c>
+      <c r="T56" t="s">
+        <v>27</v>
+      </c>
+      <c r="U56" t="s">
+        <v>27</v>
+      </c>
+      <c r="V56" t="s">
+        <v>36</v>
+      </c>
+      <c r="W56" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>27</v>
+      </c>
+      <c r="B57" t="s">
+        <v>27</v>
+      </c>
+      <c r="C57" t="s">
+        <v>27</v>
+      </c>
+      <c r="D57" t="s">
+        <v>27</v>
+      </c>
+      <c r="E57" t="s">
+        <v>27</v>
+      </c>
+      <c r="F57" t="s">
+        <v>27</v>
+      </c>
+      <c r="G57" t="s">
+        <v>27</v>
+      </c>
+      <c r="H57" t="s">
+        <v>27</v>
+      </c>
+      <c r="I57" t="s">
+        <v>27</v>
+      </c>
+      <c r="J57" t="s">
+        <v>27</v>
+      </c>
+      <c r="K57" t="s">
+        <v>27</v>
+      </c>
+      <c r="L57" t="s">
+        <v>27</v>
+      </c>
+      <c r="M57" t="s">
+        <v>27</v>
+      </c>
+      <c r="N57" t="s">
+        <v>27</v>
+      </c>
+      <c r="O57" t="s">
+        <v>27</v>
+      </c>
+      <c r="P57" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>27</v>
+      </c>
+      <c r="R57" t="s">
+        <v>27</v>
+      </c>
+      <c r="S57" t="s">
+        <v>27</v>
+      </c>
+      <c r="T57" t="s">
+        <v>27</v>
+      </c>
+      <c r="U57" t="s">
+        <v>27</v>
+      </c>
+      <c r="V57" t="s">
+        <v>28</v>
+      </c>
+      <c r="W57" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>27</v>
+      </c>
+      <c r="B58" t="s">
+        <v>27</v>
+      </c>
+      <c r="C58" t="s">
+        <v>27</v>
+      </c>
+      <c r="D58" t="s">
+        <v>27</v>
+      </c>
+      <c r="E58" t="s">
+        <v>27</v>
+      </c>
+      <c r="F58" t="s">
+        <v>27</v>
+      </c>
+      <c r="G58" t="s">
+        <v>27</v>
+      </c>
+      <c r="H58" t="s">
+        <v>27</v>
+      </c>
+      <c r="I58" t="s">
+        <v>27</v>
+      </c>
+      <c r="J58" t="s">
+        <v>27</v>
+      </c>
+      <c r="K58" t="s">
+        <v>27</v>
+      </c>
+      <c r="L58" t="s">
+        <v>27</v>
+      </c>
+      <c r="M58" t="s">
+        <v>27</v>
+      </c>
+      <c r="N58" t="s">
+        <v>27</v>
+      </c>
+      <c r="O58" t="s">
+        <v>27</v>
+      </c>
+      <c r="P58" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>27</v>
+      </c>
+      <c r="R58" t="s">
+        <v>27</v>
+      </c>
+      <c r="S58" t="s">
+        <v>27</v>
+      </c>
+      <c r="T58" t="s">
+        <v>27</v>
+      </c>
+      <c r="U58" t="s">
+        <v>27</v>
+      </c>
+      <c r="V58" t="s">
+        <v>38</v>
+      </c>
+      <c r="W58" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>27</v>
+      </c>
+      <c r="B59" t="s">
+        <v>27</v>
+      </c>
+      <c r="C59" t="s">
+        <v>27</v>
+      </c>
+      <c r="D59" t="s">
+        <v>27</v>
+      </c>
+      <c r="E59" t="s">
+        <v>27</v>
+      </c>
+      <c r="F59" t="s">
+        <v>27</v>
+      </c>
+      <c r="G59" t="s">
+        <v>27</v>
+      </c>
+      <c r="H59" t="s">
+        <v>27</v>
+      </c>
+      <c r="I59" t="s">
+        <v>27</v>
+      </c>
+      <c r="J59" t="s">
+        <v>27</v>
+      </c>
+      <c r="K59" t="s">
+        <v>27</v>
+      </c>
+      <c r="L59" t="s">
+        <v>27</v>
+      </c>
+      <c r="M59" t="s">
+        <v>27</v>
+      </c>
+      <c r="N59" t="s">
+        <v>27</v>
+      </c>
+      <c r="O59" t="s">
+        <v>27</v>
+      </c>
+      <c r="P59" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>27</v>
+      </c>
+      <c r="R59" t="s">
+        <v>27</v>
+      </c>
+      <c r="S59" t="s">
+        <v>27</v>
+      </c>
+      <c r="T59" t="s">
+        <v>27</v>
+      </c>
+      <c r="U59" t="s">
+        <v>27</v>
+      </c>
+      <c r="V59" t="s">
+        <v>39</v>
+      </c>
+      <c r="W59" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>27</v>
+      </c>
+      <c r="B60" t="s">
+        <v>27</v>
+      </c>
+      <c r="C60" t="s">
+        <v>27</v>
+      </c>
+      <c r="D60" t="s">
+        <v>27</v>
+      </c>
+      <c r="E60" t="s">
+        <v>27</v>
+      </c>
+      <c r="F60" t="s">
+        <v>27</v>
+      </c>
+      <c r="G60" t="s">
+        <v>27</v>
+      </c>
+      <c r="H60" t="s">
+        <v>27</v>
+      </c>
+      <c r="I60" t="s">
+        <v>27</v>
+      </c>
+      <c r="J60" t="s">
+        <v>27</v>
+      </c>
+      <c r="K60" t="s">
+        <v>27</v>
+      </c>
+      <c r="L60" t="s">
+        <v>27</v>
+      </c>
+      <c r="M60" t="s">
+        <v>27</v>
+      </c>
+      <c r="N60" t="s">
+        <v>27</v>
+      </c>
+      <c r="O60" t="s">
+        <v>27</v>
+      </c>
+      <c r="P60" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>27</v>
+      </c>
+      <c r="R60" t="s">
+        <v>27</v>
+      </c>
+      <c r="S60" t="s">
+        <v>27</v>
+      </c>
+      <c r="T60" t="s">
+        <v>27</v>
+      </c>
+      <c r="U60" t="s">
+        <v>27</v>
+      </c>
+      <c r="V60" t="s">
+        <v>41</v>
+      </c>
+      <c r="W60" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>2</v>
+      </c>
+      <c r="D61" t="s">
+        <v>3</v>
+      </c>
+      <c r="E61" t="s">
+        <v>4</v>
+      </c>
+      <c r="F61" t="s">
+        <v>5</v>
+      </c>
+      <c r="G61" t="s">
+        <v>6</v>
+      </c>
+      <c r="H61" t="s">
+        <v>7</v>
+      </c>
+      <c r="I61" t="s">
+        <v>8</v>
+      </c>
+      <c r="J61" t="s">
+        <v>9</v>
+      </c>
+      <c r="K61" t="s">
+        <v>10</v>
+      </c>
+      <c r="L61" t="s">
+        <v>11</v>
+      </c>
+      <c r="M61" t="s">
+        <v>12</v>
+      </c>
+      <c r="N61" t="s">
+        <v>13</v>
+      </c>
+      <c r="O61" t="s">
+        <v>14</v>
+      </c>
+      <c r="P61" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>16</v>
+      </c>
+      <c r="R61" t="s">
+        <v>17</v>
+      </c>
+      <c r="S61" t="s">
+        <v>18</v>
+      </c>
+      <c r="T61" t="s">
+        <v>19</v>
+      </c>
+      <c r="U61" t="s">
+        <v>20</v>
+      </c>
+      <c r="V61" t="s">
+        <v>21</v>
+      </c>
+      <c r="W61" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>23</v>
+      </c>
+      <c r="B62" t="s">
+        <v>24</v>
+      </c>
+      <c r="C62" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>184.0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>5.24183083E8</v>
+      </c>
+      <c r="G62" t="s">
+        <v>25</v>
+      </c>
+      <c r="H62" t="s">
+        <v>26</v>
+      </c>
+      <c r="I62" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="L62" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="N62" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="O62" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="P62" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="R62" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="S62" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="T62" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="U62" t="n">
+        <v>54.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>2</v>
+      </c>
+      <c r="D63" t="s">
+        <v>3</v>
+      </c>
+      <c r="E63" t="s">
+        <v>4</v>
+      </c>
+      <c r="F63" t="s">
+        <v>5</v>
+      </c>
+      <c r="G63" t="s">
+        <v>6</v>
+      </c>
+      <c r="H63" t="s">
+        <v>7</v>
+      </c>
+      <c r="I63" t="s">
+        <v>8</v>
+      </c>
+      <c r="J63" t="s">
+        <v>9</v>
+      </c>
+      <c r="K63" t="s">
+        <v>10</v>
+      </c>
+      <c r="L63" t="s">
+        <v>11</v>
+      </c>
+      <c r="M63" t="s">
+        <v>12</v>
+      </c>
+      <c r="N63" t="s">
+        <v>13</v>
+      </c>
+      <c r="O63" t="s">
+        <v>14</v>
+      </c>
+      <c r="P63" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>16</v>
+      </c>
+      <c r="R63" t="s">
+        <v>17</v>
+      </c>
+      <c r="S63" t="s">
+        <v>18</v>
+      </c>
+      <c r="T63" t="s">
+        <v>19</v>
+      </c>
+      <c r="U63" t="s">
+        <v>20</v>
+      </c>
+      <c r="V63" t="s">
+        <v>21</v>
+      </c>
+      <c r="W63" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>23</v>
+      </c>
+      <c r="B64" t="s">
+        <v>24</v>
+      </c>
+      <c r="C64" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="E64" t="n">
+        <v>184.0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>5.24183083E8</v>
+      </c>
+      <c r="G64" t="s">
+        <v>25</v>
+      </c>
+      <c r="H64" t="s">
+        <v>26</v>
+      </c>
+      <c r="I64" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K64" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="L64" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>65656.0</v>
+      </c>
+      <c r="O64" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="P64" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R64" t="n">
+        <v>656.0</v>
+      </c>
+      <c r="S64" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="T64" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="U64" t="n">
+        <v>65.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>27</v>
+      </c>
+      <c r="B65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C65" t="s">
+        <v>27</v>
+      </c>
+      <c r="D65" t="s">
+        <v>27</v>
+      </c>
+      <c r="E65" t="s">
+        <v>27</v>
+      </c>
+      <c r="F65" t="s">
+        <v>27</v>
+      </c>
+      <c r="G65" t="s">
+        <v>27</v>
+      </c>
+      <c r="H65" t="s">
+        <v>27</v>
+      </c>
+      <c r="I65" t="s">
+        <v>27</v>
+      </c>
+      <c r="J65" t="s">
+        <v>27</v>
+      </c>
+      <c r="K65" t="s">
+        <v>27</v>
+      </c>
+      <c r="L65" t="s">
+        <v>27</v>
+      </c>
+      <c r="M65" t="s">
+        <v>27</v>
+      </c>
+      <c r="N65" t="s">
+        <v>27</v>
+      </c>
+      <c r="O65" t="s">
+        <v>27</v>
+      </c>
+      <c r="P65" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>27</v>
+      </c>
+      <c r="R65" t="s">
+        <v>27</v>
+      </c>
+      <c r="S65" t="s">
+        <v>27</v>
+      </c>
+      <c r="T65" t="s">
+        <v>27</v>
+      </c>
+      <c r="U65" t="s">
+        <v>27</v>
+      </c>
+      <c r="V65" t="s">
+        <v>47</v>
+      </c>
+      <c r="W65" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
